--- a/tests/results_tests/Estadisticos mensuales CDD.xlsx
+++ b/tests/results_tests/Estadisticos mensuales CDD.xlsx
@@ -582,7 +582,7 @@
         <v>105.56</v>
       </c>
       <c r="F2" t="n">
-        <v>7.94</v>
+        <v>122.45</v>
       </c>
       <c r="G2" t="n">
         <v>78.26000000000001</v>
@@ -591,7 +591,7 @@
         <v>130.72</v>
       </c>
       <c r="I2" t="n">
-        <v>62.2</v>
+        <v>147.95</v>
       </c>
       <c r="J2" t="n">
         <v>89.27</v>
@@ -606,7 +606,7 @@
         <v>27.25</v>
       </c>
       <c r="N2" t="n">
-        <v>28.89</v>
+        <v>118.68</v>
       </c>
       <c r="O2" t="n">
         <v>86.44</v>
@@ -660,25 +660,25 @@
         <v>50.13</v>
       </c>
       <c r="AF2" t="n">
-        <v>76.08</v>
+        <v>85.75</v>
       </c>
       <c r="AG2" t="n">
-        <v>70.23999999999999</v>
+        <v>77.03</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.94</v>
+        <v>18.58</v>
       </c>
       <c r="AI2" t="n">
         <v>241.75</v>
       </c>
       <c r="AJ2" t="n">
-        <v>51.72</v>
+        <v>57.29</v>
       </c>
       <c r="AK2" t="n">
-        <v>70.23999999999999</v>
+        <v>77.03</v>
       </c>
       <c r="AL2" t="n">
-        <v>93.53</v>
+        <v>106.26</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
         <v>53.8</v>
       </c>
       <c r="M3" t="n">
-        <v>90.45</v>
+        <v>171.92</v>
       </c>
       <c r="N3" t="n">
         <v>109.92</v>
@@ -776,10 +776,10 @@
         <v>92.95</v>
       </c>
       <c r="AF3" t="n">
-        <v>97.81999999999999</v>
+        <v>100.54</v>
       </c>
       <c r="AG3" t="n">
-        <v>93.29000000000001</v>
+        <v>94.23</v>
       </c>
       <c r="AH3" t="n">
         <v>17.34</v>
@@ -791,10 +791,10 @@
         <v>77.08</v>
       </c>
       <c r="AK3" t="n">
-        <v>93.29000000000001</v>
+        <v>94.23</v>
       </c>
       <c r="AL3" t="n">
-        <v>120.83</v>
+        <v>122.76</v>
       </c>
     </row>
     <row r="4">
@@ -1976,7 +1976,7 @@
         <v>128.87</v>
       </c>
       <c r="F14" t="n">
-        <v>109.27</v>
+        <v>118.81</v>
       </c>
       <c r="G14" t="n">
         <v>118.82</v>
@@ -1985,7 +1985,7 @@
         <v>91.19</v>
       </c>
       <c r="I14" t="n">
-        <v>119.53</v>
+        <v>126.67</v>
       </c>
       <c r="J14" t="n">
         <v>130.82</v>
@@ -1997,10 +1997,10 @@
         <v>79.41</v>
       </c>
       <c r="M14" t="n">
-        <v>102.53</v>
+        <v>109.32</v>
       </c>
       <c r="N14" t="n">
-        <v>96.09999999999999</v>
+        <v>103.59</v>
       </c>
       <c r="O14" t="n">
         <v>118.35</v>
@@ -2054,10 +2054,10 @@
         <v>97.68000000000001</v>
       </c>
       <c r="AF14" t="n">
-        <v>110.48</v>
+        <v>111.51</v>
       </c>
       <c r="AG14" t="n">
-        <v>107.77</v>
+        <v>107.82</v>
       </c>
       <c r="AH14" t="n">
         <v>71.75</v>
@@ -2066,13 +2066,13 @@
         <v>162.82</v>
       </c>
       <c r="AJ14" t="n">
-        <v>100.71</v>
+        <v>103.48</v>
       </c>
       <c r="AK14" t="n">
-        <v>107.77</v>
+        <v>107.82</v>
       </c>
       <c r="AL14" t="n">
-        <v>118.7</v>
+        <v>118.82</v>
       </c>
     </row>
     <row r="15">
@@ -2094,7 +2094,7 @@
         <v>110.98</v>
       </c>
       <c r="F15" t="n">
-        <v>103.48</v>
+        <v>109.63</v>
       </c>
       <c r="G15" t="n">
         <v>104.65</v>
@@ -2103,7 +2103,7 @@
         <v>95.48</v>
       </c>
       <c r="I15" t="n">
-        <v>121.84</v>
+        <v>141.74</v>
       </c>
       <c r="J15" t="n">
         <v>123.48</v>
@@ -2115,10 +2115,10 @@
         <v>76.56</v>
       </c>
       <c r="M15" t="n">
-        <v>87.55</v>
+        <v>104.6</v>
       </c>
       <c r="N15" t="n">
-        <v>75.16</v>
+        <v>89.66</v>
       </c>
       <c r="O15" t="n">
         <v>108.9</v>
@@ -2172,10 +2172,10 @@
         <v>85.44</v>
       </c>
       <c r="AF15" t="n">
-        <v>103.25</v>
+        <v>105.17</v>
       </c>
       <c r="AG15" t="n">
-        <v>102.76</v>
+        <v>104.63</v>
       </c>
       <c r="AH15" t="n">
         <v>55.45</v>
@@ -2184,10 +2184,10 @@
         <v>184.15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>88.54000000000001</v>
+        <v>92.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>102.76</v>
+        <v>104.63</v>
       </c>
       <c r="AL15" t="n">
         <v>112.68</v>
@@ -2212,7 +2212,7 @@
         <v>22.2</v>
       </c>
       <c r="F16" t="n">
-        <v>7.94</v>
+        <v>77.73</v>
       </c>
       <c r="G16" t="n">
         <v>49.57</v>
@@ -2236,7 +2236,7 @@
         <v>27.25</v>
       </c>
       <c r="N16" t="n">
-        <v>28.89</v>
+        <v>40.27</v>
       </c>
       <c r="O16" t="n">
         <v>25.32</v>
@@ -2290,25 +2290,25 @@
         <v>50.13</v>
       </c>
       <c r="AF16" t="n">
-        <v>29.25</v>
+        <v>31.96</v>
       </c>
       <c r="AG16" t="n">
-        <v>25.27</v>
+        <v>26.28</v>
       </c>
       <c r="AH16" t="n">
         <v>6.28</v>
       </c>
       <c r="AI16" t="n">
-        <v>61.55</v>
+        <v>77.73</v>
       </c>
       <c r="AJ16" t="n">
-        <v>19.09</v>
+        <v>20.95</v>
       </c>
       <c r="AK16" t="n">
-        <v>25.27</v>
+        <v>26.28</v>
       </c>
       <c r="AL16" t="n">
-        <v>33.75</v>
+        <v>41.24</v>
       </c>
     </row>
     <row r="17">
@@ -2448,7 +2448,7 @@
         <v>1546.47</v>
       </c>
       <c r="F18" t="n">
-        <v>1311.2</v>
+        <v>1425.7</v>
       </c>
       <c r="G18" t="n">
         <v>1425.81</v>
@@ -2457,7 +2457,7 @@
         <v>1094.23</v>
       </c>
       <c r="I18" t="n">
-        <v>1434.34</v>
+        <v>1520.09</v>
       </c>
       <c r="J18" t="n">
         <v>1569.89</v>
@@ -2469,10 +2469,10 @@
         <v>952.98</v>
       </c>
       <c r="M18" t="n">
-        <v>1230.39</v>
+        <v>1311.85</v>
       </c>
       <c r="N18" t="n">
-        <v>1153.26</v>
+        <v>1243.05</v>
       </c>
       <c r="O18" t="n">
         <v>1420.2</v>
@@ -2526,10 +2526,10 @@
         <v>1172.14</v>
       </c>
       <c r="AF18" t="n">
-        <v>1325.74</v>
+        <v>1338.12</v>
       </c>
       <c r="AG18" t="n">
-        <v>1293.21</v>
+        <v>1293.84</v>
       </c>
       <c r="AH18" t="n">
         <v>861.04</v>
@@ -2538,13 +2538,13 @@
         <v>1953.88</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1208.52</v>
+        <v>1241.71</v>
       </c>
       <c r="AK18" t="n">
-        <v>1293.21</v>
+        <v>1293.84</v>
       </c>
       <c r="AL18" t="n">
-        <v>1424.41</v>
+        <v>1425.78</v>
       </c>
     </row>
     <row r="19">
@@ -2566,7 +2566,7 @@
         <v>74.81</v>
       </c>
       <c r="F19" t="n">
-        <v>83.09</v>
+        <v>84.89</v>
       </c>
       <c r="G19" t="n">
         <v>90.03</v>
@@ -2575,7 +2575,7 @@
         <v>57.91</v>
       </c>
       <c r="I19" t="n">
-        <v>77.41</v>
+        <v>89.01000000000001</v>
       </c>
       <c r="J19" t="n">
         <v>92.22</v>
@@ -2590,7 +2590,7 @@
         <v>57.43</v>
       </c>
       <c r="N19" t="n">
-        <v>49.49</v>
+        <v>57.87</v>
       </c>
       <c r="O19" t="n">
         <v>78.06</v>
@@ -2644,7 +2644,7 @@
         <v>61.29</v>
       </c>
       <c r="AF19" t="n">
-        <v>64.58</v>
+        <v>65.3</v>
       </c>
       <c r="AG19" t="n">
         <v>63.88</v>
@@ -2656,13 +2656,13 @@
         <v>94.39</v>
       </c>
       <c r="AJ19" t="n">
-        <v>53.23</v>
+        <v>56.57</v>
       </c>
       <c r="AK19" t="n">
         <v>63.88</v>
       </c>
       <c r="AL19" t="n">
-        <v>77.90000000000001</v>
+        <v>78.45999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -2684,7 +2684,7 @@
         <v>110.98</v>
       </c>
       <c r="F20" t="n">
-        <v>103.48</v>
+        <v>109.63</v>
       </c>
       <c r="G20" t="n">
         <v>104.65</v>
@@ -2693,7 +2693,7 @@
         <v>95.48</v>
       </c>
       <c r="I20" t="n">
-        <v>121.84</v>
+        <v>141.74</v>
       </c>
       <c r="J20" t="n">
         <v>123.48</v>
@@ -2705,10 +2705,10 @@
         <v>76.56</v>
       </c>
       <c r="M20" t="n">
-        <v>87.55</v>
+        <v>104.6</v>
       </c>
       <c r="N20" t="n">
-        <v>75.16</v>
+        <v>89.66</v>
       </c>
       <c r="O20" t="n">
         <v>108.9</v>
@@ -2762,10 +2762,10 @@
         <v>85.44</v>
       </c>
       <c r="AF20" t="n">
-        <v>103.25</v>
+        <v>105.17</v>
       </c>
       <c r="AG20" t="n">
-        <v>102.76</v>
+        <v>104.63</v>
       </c>
       <c r="AH20" t="n">
         <v>55.45</v>
@@ -2774,10 +2774,10 @@
         <v>184.15</v>
       </c>
       <c r="AJ20" t="n">
-        <v>88.54000000000001</v>
+        <v>92.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>102.76</v>
+        <v>104.63</v>
       </c>
       <c r="AL20" t="n">
         <v>112.68</v>
@@ -2811,7 +2811,7 @@
         <v>118.61</v>
       </c>
       <c r="I21" t="n">
-        <v>148.32</v>
+        <v>151.29</v>
       </c>
       <c r="J21" t="n">
         <v>161.32</v>
@@ -2823,10 +2823,10 @@
         <v>114.14</v>
       </c>
       <c r="M21" t="n">
-        <v>140.02</v>
+        <v>161.93</v>
       </c>
       <c r="N21" t="n">
-        <v>116.28</v>
+        <v>122.85</v>
       </c>
       <c r="O21" t="n">
         <v>154.04</v>
@@ -2880,10 +2880,10 @@
         <v>103.52</v>
       </c>
       <c r="AF21" t="n">
-        <v>145.9</v>
+        <v>146.95</v>
       </c>
       <c r="AG21" t="n">
-        <v>141.94</v>
+        <v>144.3</v>
       </c>
       <c r="AH21" t="n">
         <v>103.52</v>
@@ -2895,10 +2895,10 @@
         <v>130.72</v>
       </c>
       <c r="AK21" t="n">
-        <v>141.94</v>
+        <v>144.3</v>
       </c>
       <c r="AL21" t="n">
-        <v>155.45</v>
+        <v>159.9</v>
       </c>
     </row>
   </sheetData>
